--- a/docs/StructureDefinition-CondicionInicio2LE.xlsx
+++ b/docs/StructureDefinition-CondicionInicio2LE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T12:03:32-03:00</t>
+    <t>2023-01-25T13:45:37-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-CondicionInicio2LE.xlsx
+++ b/docs/StructureDefinition-CondicionInicio2LE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T13:45:37-03:00</t>
+    <t>2023-01-30T23:51:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8777,13 +8777,13 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>76</v>

--- a/docs/StructureDefinition-CondicionInicio2LE.xlsx
+++ b/docs/StructureDefinition-CondicionInicio2LE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T23:51:40-03:00</t>
+    <t>2023-01-31T15:14:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
